--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F12-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F12-Gp1ba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>Gp1ba</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>Gp1ba</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>0.362465</v>
       </c>
       <c r="I2">
-        <v>0.7603661018086922</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7603661018086924</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.942633666666667</v>
+        <v>0.8229573333333334</v>
       </c>
       <c r="N2">
-        <v>8.827901000000001</v>
+        <v>2.468872</v>
       </c>
       <c r="O2">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="P2">
-        <v>0.4532993947193931</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="Q2">
-        <v>0.3555339039961111</v>
+        <v>0.09943107660888889</v>
       </c>
       <c r="R2">
-        <v>3.199805135965</v>
+        <v>0.8948796894800001</v>
       </c>
       <c r="S2">
-        <v>0.3446734937150246</v>
+        <v>0.2440777672676426</v>
       </c>
       <c r="T2">
-        <v>0.3446734937150246</v>
+        <v>0.2440777672676426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +602,10 @@
         <v>0.362465</v>
       </c>
       <c r="I3">
-        <v>0.7603661018086922</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7603661018086924</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>4.395834</v>
       </c>
       <c r="O3">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="P3">
-        <v>0.2257194424231681</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="Q3">
         <v>0.17703733009</v>
@@ -632,10 +632,10 @@
         <v>1.59333597081</v>
       </c>
       <c r="S3">
-        <v>0.1716294125377359</v>
+        <v>0.4345811965947162</v>
       </c>
       <c r="T3">
-        <v>0.1716294125377359</v>
+        <v>0.4345811965947162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>0.362465</v>
       </c>
       <c r="I4">
-        <v>0.7603661018086922</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7603661018086924</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,214 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.083678</v>
+        <v>1.083466</v>
       </c>
       <c r="N4">
-        <v>6.251034</v>
+        <v>3.250398</v>
       </c>
       <c r="O4">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="P4">
-        <v>0.3209811628574387</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="Q4">
-        <v>0.2517534487566667</v>
+        <v>0.1309061678966666</v>
       </c>
       <c r="R4">
-        <v>2.26578103881</v>
+        <v>1.17815551107</v>
       </c>
       <c r="S4">
-        <v>0.2440631955559317</v>
+        <v>0.3213410361376413</v>
       </c>
       <c r="T4">
-        <v>0.2440631955559317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.03807766666666666</v>
-      </c>
-      <c r="H5">
-        <v>0.114233</v>
-      </c>
-      <c r="I5">
-        <v>0.2396338981913077</v>
-      </c>
-      <c r="J5">
-        <v>0.2396338981913077</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.942633666666667</v>
-      </c>
-      <c r="N5">
-        <v>8.827901000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.4532993947193931</v>
-      </c>
-      <c r="P5">
-        <v>0.4532993947193931</v>
-      </c>
-      <c r="Q5">
-        <v>0.1120486238814444</v>
-      </c>
-      <c r="R5">
-        <v>1.008437614933</v>
-      </c>
-      <c r="S5">
-        <v>0.1086259010043684</v>
-      </c>
-      <c r="T5">
-        <v>0.1086259010043684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.03807766666666666</v>
-      </c>
-      <c r="H6">
-        <v>0.114233</v>
-      </c>
-      <c r="I6">
-        <v>0.2396338981913077</v>
-      </c>
-      <c r="J6">
-        <v>0.2396338981913077</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>1.465278</v>
-      </c>
-      <c r="N6">
-        <v>4.395834</v>
-      </c>
-      <c r="O6">
-        <v>0.2257194424231681</v>
-      </c>
-      <c r="P6">
-        <v>0.2257194424231681</v>
-      </c>
-      <c r="Q6">
-        <v>0.05579436725799999</v>
-      </c>
-      <c r="R6">
-        <v>0.502149305322</v>
-      </c>
-      <c r="S6">
-        <v>0.0540900298854322</v>
-      </c>
-      <c r="T6">
-        <v>0.05409002988543221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.03807766666666666</v>
-      </c>
-      <c r="H7">
-        <v>0.114233</v>
-      </c>
-      <c r="I7">
-        <v>0.2396338981913077</v>
-      </c>
-      <c r="J7">
-        <v>0.2396338981913077</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.083678</v>
-      </c>
-      <c r="N7">
-        <v>6.251034</v>
-      </c>
-      <c r="O7">
-        <v>0.3209811628574387</v>
-      </c>
-      <c r="P7">
-        <v>0.3209811628574387</v>
-      </c>
-      <c r="Q7">
-        <v>0.07934159632466666</v>
-      </c>
-      <c r="R7">
-        <v>0.7140743669219999</v>
-      </c>
-      <c r="S7">
-        <v>0.07691796730150702</v>
-      </c>
-      <c r="T7">
-        <v>0.07691796730150703</v>
+        <v>0.3213410361376413</v>
       </c>
     </row>
   </sheetData>
